--- a/Shading Trees/my_graphs/impact_3.xlsx
+++ b/Shading Trees/my_graphs/impact_3.xlsx
@@ -14,56 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Investment</t>
+  </si>
   <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>Investment</t>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
   </si>
   <si>
     <t>Water Saving</t>
   </si>
   <si>
+    <t>Emission Saving</t>
+  </si>
+  <si>
+    <t>Land Saving</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
     <t>Water Investment</t>
   </si>
   <si>
-    <t>Emission Saving</t>
-  </si>
-  <si>
     <t>Emission Investment</t>
   </si>
   <si>
-    <t>Land Saving</t>
-  </si>
-  <si>
     <t>Land Investment</t>
   </si>
   <si>
-    <t>Workforce Saving</t>
+    <t>Import Investment</t>
   </si>
   <si>
     <t>Workforce Investment</t>
   </si>
   <si>
-    <t>Capital Saving</t>
-  </si>
-  <si>
     <t>Capital Investment</t>
   </si>
   <si>
-    <t>Import Saving</t>
-  </si>
-  <si>
-    <t>Import Investment</t>
-  </si>
-  <si>
-    <t>PROI</t>
-  </si>
-  <si>
-    <t>PPBT</t>
-  </si>
-  <si>
     <t>Water Total Impact</t>
   </si>
   <si>
@@ -82,19 +82,22 @@
     <t>Capital Total Impact</t>
   </si>
   <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2360</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,70 +534,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>4134.522185728885</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C2">
-        <v>5078.242978463881</v>
+        <v>15.05941006913781</v>
       </c>
       <c r="D2">
-        <v>184.5891532280075</v>
+        <v>15.05940768485953</v>
       </c>
       <c r="E2">
-        <v>3.181193152369815</v>
+        <v>0.06640367409704849</v>
       </c>
       <c r="F2">
-        <v>339.4534238574961</v>
+        <v>0.6398286656331038</v>
       </c>
       <c r="G2">
-        <v>5.62470190381282</v>
+        <v>0.0113977126275131</v>
       </c>
       <c r="H2">
-        <v>15.49350752494956</v>
+        <v>0.05449149692958599</v>
       </c>
       <c r="I2">
-        <v>0.008650454517010076</v>
+        <v>1.269799678120762</v>
       </c>
       <c r="J2">
-        <v>228.557243231684</v>
+        <v>1.187678440939635</v>
       </c>
       <c r="K2">
-        <v>596.2833868898451</v>
+        <v>1.518190041184425</v>
       </c>
       <c r="L2">
-        <v>388.3219460267574</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="M2">
-        <v>27.48219418548979</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N2">
-        <v>377.8871675510891</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O2">
-        <v>397.9225437270943</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P2">
-        <v>0.8141639152090233</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q2">
-        <v>1.228253894970605</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R2">
-        <v>-3688.60187140778</v>
+        <v>-12.79605514134164</v>
       </c>
       <c r="S2">
-        <v>-6783.443775246109</v>
+        <v>-0.2270356852186524</v>
       </c>
       <c r="T2">
-        <v>-309.8615000444743</v>
+        <v>-1.089828533712534</v>
       </c>
       <c r="U2">
-        <v>-7159.820807294687</v>
+        <v>-25.33107961551286</v>
       </c>
       <c r="V2">
-        <v>-3974.861477743834</v>
+        <v>-30.26659506978467</v>
       </c>
       <c r="W2">
-        <v>-7738.956726349657</v>
+        <v>-23.74947733501904</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -602,70 +605,70 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>4134.522185728885</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C3">
-        <v>5473.217432345264</v>
+        <v>16.06583239417523</v>
       </c>
       <c r="D3">
-        <v>184.5891532280075</v>
+        <v>16.06582985055533</v>
       </c>
       <c r="E3">
-        <v>3.428619286438334</v>
+        <v>0.06224390581140346</v>
       </c>
       <c r="F3">
-        <v>339.4534238574961</v>
+        <v>0.6825969249475747</v>
       </c>
       <c r="G3">
-        <v>6.062178718551877</v>
+        <v>0.01215931509796064</v>
       </c>
       <c r="H3">
-        <v>15.49350752494956</v>
+        <v>0.058136092670793</v>
       </c>
       <c r="I3">
-        <v>0.009323267647232569</v>
+        <v>1.354669690597802</v>
       </c>
       <c r="J3">
-        <v>228.557243231684</v>
+        <v>1.266944493865594</v>
       </c>
       <c r="K3">
-        <v>642.6609836476855</v>
+        <v>1.619680810719728</v>
       </c>
       <c r="L3">
-        <v>388.3219460267574</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="M3">
-        <v>29.61969817779027</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N3">
-        <v>377.8871675510891</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O3">
-        <v>428.8720749055501</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P3">
-        <v>0.7554098182350578</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q3">
-        <v>1.323784753468526</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R3">
-        <v>-3688.354445273711</v>
+        <v>-13.65142032763106</v>
       </c>
       <c r="S3">
-        <v>-6783.00629843137</v>
+        <v>-0.2422677346276032</v>
       </c>
       <c r="T3">
-        <v>-309.860827231344</v>
+        <v>-1.162720448536675</v>
       </c>
       <c r="U3">
-        <v>-7128.871276116231</v>
+        <v>-27.02847986505367</v>
       </c>
       <c r="V3">
-        <v>-3928.483880985994</v>
+        <v>-32.29641046049073</v>
       </c>
       <c r="W3">
-        <v>-7736.819222357357</v>
+        <v>-25.33479839353822</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -673,70 +676,70 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>4134.522185728885</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C4">
-        <v>5868.191886225715</v>
+        <v>17.07225268799812</v>
       </c>
       <c r="D4">
-        <v>184.5891532280075</v>
+        <v>17.07224998503691</v>
       </c>
       <c r="E4">
-        <v>3.676045420521405</v>
+        <v>0.05857458746658799</v>
       </c>
       <c r="F4">
-        <v>339.4534238574961</v>
+        <v>0.7253650979255326</v>
       </c>
       <c r="G4">
-        <v>6.499655533294572</v>
+        <v>0.01292091603318113</v>
       </c>
       <c r="H4">
-        <v>15.49350752494956</v>
+        <v>0.06178068105509738</v>
       </c>
       <c r="I4">
-        <v>0.009996080775636074</v>
+        <v>1.439539531245828</v>
       </c>
       <c r="J4">
-        <v>228.557243231684</v>
+        <v>1.346210386836901</v>
       </c>
       <c r="K4">
-        <v>689.0385804059915</v>
+        <v>1.721171375364065</v>
       </c>
       <c r="L4">
-        <v>388.3219460267574</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="M4">
-        <v>31.75720217032358</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N4">
-        <v>377.8871675510891</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O4">
-        <v>459.8216060842387</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P4">
-        <v>0.7045649266230989</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q4">
-        <v>1.419315611966222</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R4">
-        <v>-3688.107019139628</v>
+        <v>-14.50678378719022</v>
       </c>
       <c r="S4">
-        <v>-6782.568821616627</v>
+        <v>-0.2574997533320129</v>
       </c>
       <c r="T4">
-        <v>-309.8601544182156</v>
+        <v>-1.235612216222762</v>
       </c>
       <c r="U4">
-        <v>-7097.921744937543</v>
+        <v>-28.72587667801417</v>
       </c>
       <c r="V4">
-        <v>-3882.106284227688</v>
+        <v>-34.32622175337747</v>
       </c>
       <c r="W4">
-        <v>-7734.681718364824</v>
+        <v>-26.92011625296436</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -744,70 +747,70 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>4134.522185728885</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C5">
-        <v>6263.166340105236</v>
+        <v>18.07867095060647</v>
       </c>
       <c r="D5">
-        <v>184.5891532280075</v>
+        <v>18.07866808830428</v>
       </c>
       <c r="E5">
-        <v>3.923471554604475</v>
+        <v>0.05531380935340779</v>
       </c>
       <c r="F5">
-        <v>339.4534238574961</v>
+        <v>0.7681331846106332</v>
       </c>
       <c r="G5">
-        <v>6.937132348033629</v>
+        <v>0.01368251543681254</v>
       </c>
       <c r="H5">
-        <v>15.49350752494956</v>
+        <v>0.0654252620824991</v>
       </c>
       <c r="I5">
-        <v>0.01066889390585857</v>
+        <v>1.524409200996161</v>
       </c>
       <c r="J5">
-        <v>228.557243231684</v>
+        <v>1.425476119853556</v>
       </c>
       <c r="K5">
-        <v>735.4161771638319</v>
+        <v>1.822661735117435</v>
       </c>
       <c r="L5">
-        <v>388.3219460267574</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="M5">
-        <v>33.89470616239123</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N5">
-        <v>377.8871675510891</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O5">
-        <v>490.7711372631602</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P5">
-        <v>0.6601329042235553</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q5">
-        <v>1.514846470463693</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R5">
-        <v>-3687.859593005545</v>
+        <v>-15.36214552089223</v>
       </c>
       <c r="S5">
-        <v>-6782.131344801888</v>
+        <v>-0.2727317414046411</v>
       </c>
       <c r="T5">
-        <v>-309.8594816050854</v>
+        <v>-1.308503836770797</v>
       </c>
       <c r="U5">
-        <v>-7066.972213758621</v>
+        <v>-30.42327007302083</v>
       </c>
       <c r="V5">
-        <v>-3835.728687469848</v>
+        <v>-36.35602894844487</v>
       </c>
       <c r="W5">
-        <v>-7732.544214372756</v>
+        <v>-28.50543091329746</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -815,70 +818,141 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>4134.522185728885</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C6">
-        <v>6658.140793986619</v>
+        <v>19.08508718200028</v>
       </c>
       <c r="D6">
-        <v>184.5891532280075</v>
+        <v>19.08508416035743</v>
       </c>
       <c r="E6">
-        <v>4.170897688658442</v>
+        <v>0.05239693949462111</v>
       </c>
       <c r="F6">
-        <v>339.4534238574961</v>
+        <v>0.810901184915565</v>
       </c>
       <c r="G6">
-        <v>7.374609162776324</v>
+        <v>0.01444411330157891</v>
       </c>
       <c r="H6">
-        <v>15.49350752494956</v>
+        <v>0.06906983575390768</v>
       </c>
       <c r="I6">
-        <v>0.01134170703426207</v>
+        <v>1.60927869938314</v>
       </c>
       <c r="J6">
-        <v>228.557243231684</v>
+        <v>1.504741693614051</v>
       </c>
       <c r="K6">
-        <v>781.7937739221379</v>
+        <v>1.924151889979839</v>
       </c>
       <c r="L6">
-        <v>388.3219460267574</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="M6">
-        <v>36.03221015445888</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N6">
-        <v>377.8871675510891</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O6">
-        <v>521.7206684418488</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P6">
-        <v>0.6209724777017377</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q6">
-        <v>1.610377328961614</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R6">
-        <v>-3687.612166871491</v>
+        <v>-16.21750552699086</v>
       </c>
       <c r="S6">
-        <v>-6781.693867987145</v>
+        <v>-0.2879636986999685</v>
       </c>
       <c r="T6">
-        <v>-309.858808791957</v>
+        <v>-1.381395310198968</v>
       </c>
       <c r="U6">
-        <v>-7036.022682579933</v>
+        <v>-32.12066004076041</v>
       </c>
       <c r="V6">
-        <v>-3789.351090711541</v>
+        <v>-38.38583204569295</v>
       </c>
       <c r="W6">
-        <v>-7730.406710380688</v>
+        <v>-30.09074238850735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>1.000000158324838</v>
+      </c>
+      <c r="C7">
+        <v>20.09150138031691</v>
+      </c>
+      <c r="D7">
+        <v>20.09149819933372</v>
+      </c>
+      <c r="E7">
+        <v>0.04977229622593114</v>
+      </c>
+      <c r="F7">
+        <v>0.8536690989421913</v>
+      </c>
+      <c r="G7">
+        <v>0.01520570962748025</v>
+      </c>
+      <c r="H7">
+        <v>0.07271440206841362</v>
+      </c>
+      <c r="I7">
+        <v>1.694148026639596</v>
+      </c>
+      <c r="J7">
+        <v>1.584007106488571</v>
+      </c>
+      <c r="K7">
+        <v>2.025641840416938</v>
+      </c>
+      <c r="L7">
+        <v>0.0005181713204365224</v>
+      </c>
+      <c r="M7">
+        <v>0.0009185673316096654</v>
+      </c>
+      <c r="N7">
+        <v>1.404879185429309e-06</v>
+      </c>
+      <c r="O7">
+        <v>0.06491394690237939</v>
+      </c>
+      <c r="P7">
+        <v>0.09720575390383601</v>
+      </c>
+      <c r="Q7">
+        <v>0.00409148377366364</v>
+      </c>
+      <c r="R7">
+        <v>-17.07286380752339</v>
+      </c>
+      <c r="S7">
+        <v>-0.3031956252179953</v>
+      </c>
+      <c r="T7">
+        <v>-1.454286636489087</v>
+      </c>
+      <c r="U7">
+        <v>-33.81804658588953</v>
+      </c>
+      <c r="V7">
+        <v>-40.41563105443493</v>
+      </c>
+      <c r="W7">
+        <v>-31.67605064599775</v>
       </c>
     </row>
   </sheetData>
